--- a/backend/data/Directory_Bot.xlsx
+++ b/backend/data/Directory_Bot.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>directory_website</t>
   </si>
@@ -32,6 +32,10 @@
     <t>https://wellfound.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">enter company name,Logo,Work Email,Website,Location,Markets,Number of employees,One-line pitch,About you( name,email ,your role,phone number,upload photo)
+</t>
+  </si>
+  <si>
     <t>https://theresanaiforthat.com/</t>
   </si>
   <si>
@@ -50,7 +54,10 @@
     <t>website url,Product Name,Tagline,Categories(saas, security,data analytics, dev tool,etc),Competitors,LinkedIn URL ,Contact email</t>
   </si>
   <si>
-    <t>https://betalist.com/</t>
+    <t>https://dang.ai/</t>
+  </si>
+  <si>
+    <t>Your Name,Email*,URL,Do you represent this company,</t>
   </si>
   <si>
     <t>https://toolsfine.com/</t>
@@ -101,9 +108,15 @@
     <t>https://peerlist.io/</t>
   </si>
   <si>
+    <t>your project URL,Project name ,Project URL,Tagline,Built with,Collaborators,Description,Logo,Cover image(s),Demo video</t>
+  </si>
+  <si>
     <t>https://alternative.me</t>
   </si>
   <si>
+    <t>Software Name,Icon,Category,Short Description,Full Description,Homepage URL,Pricing URL (if available),Type,Monetization,Status(released or not),Platforms(windows,linux,macos,etc),Screenshots,Features,Social Links,Pricing (if available),Synonyms</t>
+  </si>
+  <si>
     <t>https://magicbox.tools/</t>
   </si>
   <si>
@@ -123,6 +136,9 @@
   </si>
   <si>
     <t>https://www.futuretools.io/</t>
+  </si>
+  <si>
+    <t>Your Name,Your Email Address,Tool Name,Tool URL,Tool Tags,Pricing Model,Tool Description,Any Other Details You'd Like To Share?</t>
   </si>
   <si>
     <t>AI Tools</t>
@@ -147,19 +163,64 @@
     <t>https://peerpush.net/</t>
   </si>
   <si>
+    <t>Enter your website URL,Product name,One-line tagline,Product description,Categories,Website URL,Logo ,MRR - Monthly Recurring Revenue ,X / Twitter username,LinkedIn URL</t>
+  </si>
+  <si>
     <t>https://www.superlaun.ch/</t>
   </si>
   <si>
     <t>product name, tag line,website,category,description,logo</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Inter, &quot;Inter Fallback&quot;, sans-serif"/>
+        <b val="0"/>
+        <color rgb="FF37352F"/>
+        <sz val="7.0"/>
+      </rPr>
+      <t>Your name,Your email,Product name,Product website url,Short introduce in one sentence,Long introduction,Features or benefits,Commercial and Open source,Pricing plan,Minimum price($),Logo (less than 1MB),</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Inter, &quot;Inter Fallback&quot;, sans-serif"/>
+        <b/>
+        <color rgb="FF37352F"/>
+        <sz val="7.0"/>
+      </rPr>
+      <t xml:space="preserve">Where did you hear </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Inter, &quot;Inter Fallback&quot;, sans-serif"/>
+        <b/>
+        <color rgb="FF1155CC"/>
+        <sz val="7.0"/>
+        <u/>
+      </rPr>
+      <t>Toolsfine.com,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Inter, &quot;Inter Fallback&quot;, sans-serif"/>
+        <b/>
+        <color rgb="FF37352F"/>
+        <sz val="7.0"/>
+      </rPr>
+      <t>Is it possible to provide backlink for Toolsfine.com?</t>
+    </r>
+  </si>
+  <si>
     <t>https://ideakiln.com/</t>
   </si>
   <si>
     <t>Name,app type, stage,category,tags,tagline,description</t>
   </si>
   <si>
-    <t>https://microlaunch.net/</t>
+    <t>https://www.tinystartups.com/</t>
+  </si>
+  <si>
+    <t>Startup Name,Website URL,Tagline (100 Characters Max),Category Tags,Logo (Square),Submitted by..(name and details),Subscribe to our free weekly newsletter,How did you hear about us?,What's your goal with this listing</t>
   </si>
   <si>
     <t>https://www.aidirectori.es/</t>
@@ -184,7 +245,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="16">
+  <fonts count="22">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -220,12 +281,28 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <name val="Lato"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color rgb="FF37352F"/>
       <name val="Inter"/>
     </font>
     <font>
       <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <name val="Geist"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8.0"/>
+      <color rgb="FF363636"/>
+      <name val="Nunito"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -235,6 +312,11 @@
       <name val="Outfit"/>
     </font>
     <font>
+      <sz val="8.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="Karla"/>
@@ -250,11 +332,24 @@
       <name val="__Inter_f367f3"/>
     </font>
     <font>
+      <b/>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF37352F"/>
+      <name val="Inter"/>
+    </font>
+    <font>
       <sz val="9.0"/>
       <color rgb="FF252525"/>
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <sz val="9.0"/>
+      <color rgb="FF3D3D3D"/>
+      <name val="Karla"/>
+    </font>
+    <font>
       <sz val="9.0"/>
       <color rgb="FF374151"/>
       <name val="__Poppins_81acfd"/>
@@ -265,7 +360,7 @@
       <name val="&quot;Source Sans 3&quot;"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,6 +385,12 @@
         <bgColor rgb="FFF6F9FC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -297,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -317,33 +418,54 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -567,7 +689,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="41.0"/>
-    <col customWidth="1" min="2" max="2" width="144.25"/>
+    <col customWidth="1" min="2" max="2" width="222.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -592,164 +714,187 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" ht="45.0" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>35</v>
+        <v>42</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>39</v>
+        <v>46</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -774,13 +919,14 @@
     <hyperlink r:id="rId18" ref="A19"/>
     <hyperlink r:id="rId19" ref="A20"/>
     <hyperlink r:id="rId20" ref="A21"/>
-    <hyperlink r:id="rId21" ref="A22"/>
-    <hyperlink r:id="rId22" ref="A23"/>
-    <hyperlink r:id="rId23" ref="A24"/>
-    <hyperlink r:id="rId24" ref="A25"/>
-    <hyperlink r:id="rId25" ref="A26"/>
+    <hyperlink r:id="rId21" ref="B21"/>
+    <hyperlink r:id="rId22" ref="A22"/>
+    <hyperlink r:id="rId23" ref="A23"/>
+    <hyperlink r:id="rId24" ref="A24"/>
+    <hyperlink r:id="rId25" ref="A25"/>
+    <hyperlink r:id="rId26" ref="A26"/>
   </hyperlinks>
-  <drawing r:id="rId26"/>
+  <drawing r:id="rId27"/>
 </worksheet>
 </file>
 

--- a/backend/data/Directory_Bot.xlsx
+++ b/backend/data/Directory_Bot.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Projects\Next.JS\directory_bot\backend\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD1FCA9-27D1-4DAC-9902-6D003BF8D179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="data" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="legend" sheetId="2" r:id="rId5"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="legend" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -51,9 +60,6 @@
     <t>https://www.saashub.com/</t>
   </si>
   <si>
-    <t>website url,Product Name,Tagline,Categories(saas, security,data analytics, dev tool,etc),Competitors,LinkedIn URL ,Contact email</t>
-  </si>
-  <si>
     <t>https://dang.ai/</t>
   </si>
   <si>
@@ -65,41 +71,46 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Inter, &quot;Inter Fallback&quot;, sans-serif"/>
+        <sz val="9"/>
         <color rgb="FF37352F"/>
-        <sz val="9.0"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
       </rPr>
       <t>Your name,Your email,Tagline,Product name,Product website url,Short introduce in one sentence,Long introduction ,Features or benefits,Commercial and Open source,</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Inter, &quot;Inter Fallback&quot;, sans-serif"/>
+        <sz val="8"/>
         <color rgb="FF37352F"/>
-        <sz val="8.0"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
       </rPr>
       <t>Pricing plan,Minimum price($),</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Inter, &quot;Inter Fallback&quot;, sans-serif"/>
+        <sz val="9"/>
         <color rgb="FF37352F"/>
-        <sz val="9.0"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
       </rPr>
       <t>Logo</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Inter, &quot;Inter Fallback&quot;, sans-serif"/>
+        <sz val="11"/>
         <color rgb="FF37352F"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Inter, &quot;Inter Fallback&quot;, sans-serif"/>
+        <sz val="9"/>
         <color rgb="FF37352F"/>
-        <sz val="9.0"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
       </rPr>
       <t>(less than 500*500px, less than 1MB),Where did you hear Toolsfine.com</t>
     </r>
@@ -174,38 +185,41 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Inter, &quot;Inter Fallback&quot;, sans-serif"/>
-        <b val="0"/>
+        <sz val="7"/>
         <color rgb="FF37352F"/>
-        <sz val="7.0"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
       </rPr>
       <t>Your name,Your email,Product name,Product website url,Short introduce in one sentence,Long introduction,Features or benefits,Commercial and Open source,Pricing plan,Minimum price($),Logo (less than 1MB),</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Inter, &quot;Inter Fallback&quot;, sans-serif"/>
         <b/>
+        <sz val="7"/>
         <color rgb="FF37352F"/>
-        <sz val="7.0"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Where did you hear </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Inter, &quot;Inter Fallback&quot;, sans-serif"/>
         <b/>
+        <u/>
+        <sz val="7"/>
         <color rgb="FF1155CC"/>
-        <sz val="7.0"/>
-        <u/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
       </rPr>
       <t>Toolsfine.com,</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Inter, &quot;Inter Fallback&quot;, sans-serif"/>
         <b/>
+        <sz val="7"/>
         <color rgb="FF37352F"/>
-        <sz val="7.0"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
       </rPr>
       <t>Is it possible to provide backlink for Toolsfine.com?</t>
     </r>
@@ -220,9 +234,6 @@
     <t>https://www.tinystartups.com/</t>
   </si>
   <si>
-    <t>Startup Name,Website URL,Tagline (100 Characters Max),Category Tags,Logo (Square),Submitted by..(name and details),Subscribe to our free weekly newsletter,How did you hear about us?,What's your goal with this listing</t>
-  </si>
-  <si>
     <t>https://www.aidirectori.es/</t>
   </si>
   <si>
@@ -239,125 +250,175 @@
   </si>
   <si>
     <t>news heading, url , text</t>
+  </si>
+  <si>
+    <t>website url,Product Name,Tagline,Categories,LinkedIn URL ,Contact email</t>
+  </si>
+  <si>
+    <t>Startup Name,Website URL,Tagline,Category Tags,Logo (Square),Submitted by..(name and details),Subscribe to our free weekly newsletter,How did you hear about us?,What's your goal with this listing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="22">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="28">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FFE6E6E6"/>
       <name val="Geist"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF111827"/>
       <name val="-apple-system"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF253858"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Lato"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF37352F"/>
       <name val="Inter"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Geist"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF363636"/>
       <name val="Nunito"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Outfit"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Karla"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="__Inter_f367f3"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF37352F"/>
       <name val="Inter"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF252525"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF3D3D3D"/>
       <name val="Karla"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF374151"/>
       <name val="__Poppins_81acfd"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="&quot;Source Sans 3&quot;"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF37352F"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF37352F"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF37352F"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF37352F"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF37352F"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="7"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -365,7 +426,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -393,99 +454,64 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -675,24 +701,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="41.0"/>
-    <col customWidth="1" min="2" max="2" width="222.25"/>
+    <col min="1" max="1" width="41" customWidth="1"/>
+    <col min="2" max="2" width="222.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="13.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -700,12 +731,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="13.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" ht="13.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -713,7 +744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" ht="13.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -721,7 +752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" ht="13.2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -729,7 +760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" ht="13.2">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -737,218 +768,219 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" ht="13.2">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="13.2">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="7" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="45" customHeight="1">
+      <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" ht="45.0" customHeight="1">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="8" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="13.2">
+      <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="s">
+      <c r="B10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="9" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="13.2">
+      <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="10" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="13.2">
+      <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="13.2">
+      <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="s">
+      <c r="B13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="11" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="13.2">
+      <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="12" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="13.2">
+      <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="s">
+      <c r="B15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="13" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="13.2">
+      <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="14" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="13.2">
+      <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="s">
+      <c r="B17" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="15" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="13.2">
+      <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="s">
+      <c r="B18" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="16" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="13.2">
+      <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="s">
+      <c r="B19" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="17" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="13.2">
+      <c r="A20" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="s">
+      <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="13.8">
+      <c r="A21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="18" t="s">
+    <row r="22" spans="1:2" ht="13.2">
+      <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
+      <c r="B22" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="19" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="13.2">
+      <c r="A23" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="4" t="s">
+      <c r="B23" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="13.2">
+      <c r="A24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B24" s="21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="4" t="s">
+    <row r="25" spans="1:2" ht="13.2">
+      <c r="A25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B25" s="22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:2" ht="13.2">
+      <c r="A26" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B26" s="1" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A3"/>
-    <hyperlink r:id="rId3" ref="A4"/>
-    <hyperlink r:id="rId4" ref="A5"/>
-    <hyperlink r:id="rId5" ref="A6"/>
-    <hyperlink r:id="rId6" ref="A7"/>
-    <hyperlink r:id="rId7" ref="A8"/>
-    <hyperlink r:id="rId8" ref="A9"/>
-    <hyperlink r:id="rId9" ref="A10"/>
-    <hyperlink r:id="rId10" ref="A11"/>
-    <hyperlink r:id="rId11" ref="A12"/>
-    <hyperlink r:id="rId12" ref="A13"/>
-    <hyperlink r:id="rId13" ref="A14"/>
-    <hyperlink r:id="rId14" ref="A15"/>
-    <hyperlink r:id="rId15" ref="A16"/>
-    <hyperlink r:id="rId16" ref="A17"/>
-    <hyperlink r:id="rId17" ref="A18"/>
-    <hyperlink r:id="rId18" ref="A19"/>
-    <hyperlink r:id="rId19" ref="A20"/>
-    <hyperlink r:id="rId20" ref="A21"/>
-    <hyperlink r:id="rId21" ref="B21"/>
-    <hyperlink r:id="rId22" ref="A22"/>
-    <hyperlink r:id="rId23" ref="A23"/>
-    <hyperlink r:id="rId24" ref="A24"/>
-    <hyperlink r:id="rId25" ref="A25"/>
-    <hyperlink r:id="rId26" ref="A26"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B21" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A22" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A23" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A24" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A25" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A26" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
   </hyperlinks>
-  <drawing r:id="rId27"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>